--- a/documentacao/Planilha_De_Riscos.xlsx
+++ b/documentacao/Planilha_De_Riscos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\git PI\Ar Condicionado\TechHumi\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DF8DCF-94C4-45FD-8443-34625FBCC9F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53399D3F-B90E-40F8-977D-4F497C2B217F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6555D6F6-86FF-4B9E-8333-5BDFFF8F23F9}"/>
   </bookViews>

--- a/documentacao/Planilha_De_Riscos.xlsx
+++ b/documentacao/Planilha_De_Riscos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\git PI\Ar Condicionado\TechHumi\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ARQUIVOS\TechHumi\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53399D3F-B90E-40F8-977D-4F497C2B217F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6555D6F6-86FF-4B9E-8333-5BDFFF8F23F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -63,9 +62,6 @@
     <t>Médio</t>
   </si>
   <si>
-    <t xml:space="preserve">Aceitar </t>
-  </si>
-  <si>
     <t>Agregar mais tarefas aos membros restantes</t>
   </si>
   <si>
@@ -90,12 +86,6 @@
     <t>Sem Acesso a Internet</t>
   </si>
   <si>
-    <t>Transferir</t>
-  </si>
-  <si>
-    <t>Transferir temporariamente a atividade para outro membro</t>
-  </si>
-  <si>
     <t>Ausência de Membro</t>
   </si>
   <si>
@@ -103,12 +93,15 @@
   </si>
   <si>
     <t>Todos os Membros devem ter total ciencia do Projeto</t>
+  </si>
+  <si>
+    <t>Planejar hora extra durante a semana ou no fim de semana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,11 +740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC8F7B5-6073-4DBB-8165-1F79FD6E7757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,10 +797,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -815,22 +808,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7">
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,22 +831,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="11">
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -876,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -884,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>9</v>
@@ -896,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
